--- a/lme_results/ug_T3/ug_envy.xlsx
+++ b/lme_results/ug_T3/ug_envy.xlsx
@@ -392,16 +392,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>6.94252971418382</v>
+        <v>4.39364806774175</v>
       </c>
       <c r="C2" t="n">
-        <v>0.201146519050915</v>
+        <v>0.226742093337631</v>
       </c>
       <c r="D2" t="n">
-        <v>34.51478925383</v>
+        <v>19.3772933956263</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000531184635700801</v>
+        <v>0.0000000000000000000000000000000000183608598096176</v>
       </c>
     </row>
     <row r="3">
@@ -409,16 +409,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0194320351884888</v>
+        <v>-0.205137240240449</v>
       </c>
       <c r="C3" t="n">
-        <v>0.405452863268947</v>
+        <v>0.457046094563869</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0479267430295566</v>
+        <v>-0.448832716612969</v>
       </c>
       <c r="E3" t="n">
-        <v>0.961871178623147</v>
+        <v>0.654533259868536</v>
       </c>
     </row>
     <row r="4">
@@ -426,16 +426,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.000430831592014284</v>
+        <v>0.194228571524822</v>
       </c>
       <c r="C4" t="n">
-        <v>0.402456718728986</v>
+        <v>0.453668695401615</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.00107050416098136</v>
+        <v>0.428128661936612</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999148015580394</v>
+        <v>0.669487412448087</v>
       </c>
     </row>
     <row r="5">
@@ -443,16 +443,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.70829152472697</v>
+        <v>-2.13965244830674</v>
       </c>
       <c r="C5" t="n">
-        <v>0.809718110709973</v>
+        <v>0.912753451076618</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.10973609473686</v>
+        <v>-2.34417349590183</v>
       </c>
       <c r="E5" t="n">
-        <v>0.037402753459004</v>
+        <v>0.0210670244572095</v>
       </c>
     </row>
   </sheetData>
